--- a/MATLAB_code/TRUNCATED_CONE.xlsx
+++ b/MATLAB_code/TRUNCATED_CONE.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Desktop\Jaswant\Tesis\Matlab\codigo de yuang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Prestress_finding\MATLAB_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0606E4D3-D066-4692-A996-67E27D51D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471D67C8-4A26-4654-9A30-01429BA8C78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{702E2B77-B6BF-476C-A705-20D3E4517120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{702E2B77-B6BF-476C-A705-20D3E4517120}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CONNECTIVITY" sheetId="1" r:id="rId1"/>
+    <sheet name="COORDINATES" sheetId="2" r:id="rId2"/>
+    <sheet name="FREE NODES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,10 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC33C04-569A-4632-A242-BFDC81C0F7F9}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -505,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -522,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -539,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -670,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEA36FB-32DE-4AE2-883C-9AD4E68E2BD7}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -810,7 +806,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
